--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgl1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgl1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Fgl1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.08546300000000001</v>
+        <v>0.085463</v>
       </c>
       <c r="H2">
         <v>0.256389</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>0.05970735754200002</v>
+        <v>0.1397616321733333</v>
       </c>
       <c r="R2">
-        <v>0.5373662178780001</v>
+        <v>1.25785468956</v>
       </c>
       <c r="S2">
-        <v>0.0100360027308206</v>
+        <v>0.01799946550540828</v>
       </c>
       <c r="T2">
-        <v>0.0100360027308206</v>
+        <v>0.01799946550540828</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.08546300000000001</v>
+        <v>0.085463</v>
       </c>
       <c r="H3">
         <v>0.256389</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>3.924150188044333</v>
+        <v>3.924150188044334</v>
       </c>
       <c r="R3">
         <v>35.317351692399</v>
       </c>
       <c r="S3">
-        <v>0.6595968005393645</v>
+        <v>0.5053790861582552</v>
       </c>
       <c r="T3">
-        <v>0.6595968005393645</v>
+        <v>0.5053790861582551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.08546300000000001</v>
+        <v>0.085463</v>
       </c>
       <c r="H4">
         <v>0.256389</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>0.01991854804566667</v>
+        <v>0.07178587181966666</v>
       </c>
       <c r="R4">
-        <v>0.179266932411</v>
+        <v>0.6460728463769999</v>
       </c>
       <c r="S4">
-        <v>0.003348039685723394</v>
+        <v>0.009245078949788378</v>
       </c>
       <c r="T4">
-        <v>0.003348039685723394</v>
+        <v>0.009245078949788377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +714,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>2</v>
       </c>
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.08546300000000001</v>
+        <v>0.085463</v>
       </c>
       <c r="H5">
         <v>0.256389</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>1.691024446325667</v>
+        <v>0.6487521684023333</v>
       </c>
       <c r="R5">
-        <v>15.219220016931</v>
+        <v>5.838769515620999</v>
       </c>
       <c r="S5">
-        <v>0.284238436599221</v>
+        <v>0.08355077209054404</v>
       </c>
       <c r="T5">
-        <v>0.284238436599221</v>
+        <v>0.08355077209054403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.08546300000000001</v>
+        <v>0.085463</v>
       </c>
       <c r="H6">
         <v>0.256389</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.6706908097814145</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>0.2170688980833334</v>
+        <v>0.408552196591</v>
       </c>
       <c r="R6">
-        <v>1.95362008275</v>
+        <v>3.676969769319</v>
       </c>
       <c r="S6">
-        <v>0.03648635852638638</v>
+        <v>0.05261616550512483</v>
       </c>
       <c r="T6">
-        <v>0.03648635852638638</v>
+        <v>0.05261616550512482</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,46 +853,418 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.08546300000000001</v>
+        <v>0.085463</v>
       </c>
       <c r="H7">
         <v>0.256389</v>
       </c>
       <c r="I7">
+        <v>0.6706908097814145</v>
+      </c>
+      <c r="J7">
+        <v>0.6706908097814145</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.172647</v>
+      </c>
+      <c r="N7">
+        <v>0.517941</v>
+      </c>
+      <c r="O7">
+        <v>0.002833260191701732</v>
+      </c>
+      <c r="P7">
+        <v>0.002833260191701732</v>
+      </c>
+      <c r="Q7">
+        <v>0.014754930561</v>
+      </c>
+      <c r="R7">
+        <v>0.132794375049</v>
+      </c>
+      <c r="S7">
+        <v>0.00190024157229388</v>
+      </c>
+      <c r="T7">
+        <v>0.00190024157229388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.04196233333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.125887</v>
+      </c>
+      <c r="I8">
+        <v>0.3293091902185855</v>
+      </c>
+      <c r="J8">
+        <v>0.3293091902185856</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="M8">
+        <v>1.635346666666667</v>
+      </c>
+      <c r="N8">
+        <v>4.90604</v>
+      </c>
+      <c r="O8">
+        <v>0.02683720313876748</v>
+      </c>
+      <c r="P8">
+        <v>0.02683720313876747</v>
+      </c>
+      <c r="Q8">
+        <v>0.06862296194222223</v>
+      </c>
+      <c r="R8">
+        <v>0.61760665748</v>
+      </c>
+      <c r="S8">
+        <v>0.008837737633359198</v>
+      </c>
+      <c r="T8">
+        <v>0.0088377376333592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.04196233333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.125887</v>
+      </c>
+      <c r="I9">
+        <v>0.3293091902185855</v>
+      </c>
+      <c r="J9">
+        <v>0.3293091902185856</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="M9">
+        <v>45.91636366666668</v>
+      </c>
+      <c r="N9">
+        <v>137.749091</v>
+      </c>
+      <c r="O9">
+        <v>0.7535202194331003</v>
+      </c>
+      <c r="P9">
+        <v>0.7535202194331002</v>
+      </c>
+      <c r="Q9">
+        <v>1.926757757635222</v>
+      </c>
+      <c r="R9">
+        <v>17.340819818717</v>
+      </c>
+      <c r="S9">
+        <v>0.2481411332748451</v>
+      </c>
+      <c r="T9">
+        <v>0.2481411332748451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.04196233333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.125887</v>
+      </c>
+      <c r="I10">
+        <v>0.3293091902185855</v>
+      </c>
+      <c r="J10">
+        <v>0.3293091902185856</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="L7">
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="M7">
-        <v>0.4381679999999999</v>
-      </c>
-      <c r="N7">
-        <v>1.314504</v>
-      </c>
-      <c r="O7">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="P7">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="Q7">
-        <v>0.037447151784</v>
-      </c>
-      <c r="R7">
-        <v>0.337024366056</v>
-      </c>
-      <c r="S7">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="T7">
-        <v>0.006294361918484071</v>
+      <c r="M10">
+        <v>0.8399643333333332</v>
+      </c>
+      <c r="N10">
+        <v>2.519893</v>
+      </c>
+      <c r="O10">
+        <v>0.01378441275019327</v>
+      </c>
+      <c r="P10">
+        <v>0.01378441275019327</v>
+      </c>
+      <c r="Q10">
+        <v>0.03524686334344444</v>
+      </c>
+      <c r="R10">
+        <v>0.3172217700909999</v>
+      </c>
+      <c r="S10">
+        <v>0.00453933380040489</v>
+      </c>
+      <c r="T10">
+        <v>0.00453933380040489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.04196233333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.125887</v>
+      </c>
+      <c r="I11">
+        <v>0.3293091902185855</v>
+      </c>
+      <c r="J11">
+        <v>0.3293091902185856</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.591029666666667</v>
+      </c>
+      <c r="N11">
+        <v>22.773089</v>
+      </c>
+      <c r="O11">
+        <v>0.1245742015128762</v>
+      </c>
+      <c r="P11">
+        <v>0.1245742015128762</v>
+      </c>
+      <c r="Q11">
+        <v>0.3185373172158888</v>
+      </c>
+      <c r="R11">
+        <v>2.866835854943</v>
+      </c>
+      <c r="S11">
+        <v>0.04102342942233215</v>
+      </c>
+      <c r="T11">
+        <v>0.04102342942233215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.04196233333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.125887</v>
+      </c>
+      <c r="I12">
+        <v>0.3293091902185855</v>
+      </c>
+      <c r="J12">
+        <v>0.3293091902185856</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.780457</v>
+      </c>
+      <c r="N12">
+        <v>14.341371</v>
+      </c>
+      <c r="O12">
+        <v>0.07845070297336118</v>
+      </c>
+      <c r="P12">
+        <v>0.07845070297336117</v>
+      </c>
+      <c r="Q12">
+        <v>0.2005991301196667</v>
+      </c>
+      <c r="R12">
+        <v>1.805392171077</v>
+      </c>
+      <c r="S12">
+        <v>0.02583453746823635</v>
+      </c>
+      <c r="T12">
+        <v>0.02583453746823635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.04196233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.125887</v>
+      </c>
+      <c r="I13">
+        <v>0.3293091902185855</v>
+      </c>
+      <c r="J13">
+        <v>0.3293091902185856</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.172647</v>
+      </c>
+      <c r="N13">
+        <v>0.517941</v>
+      </c>
+      <c r="O13">
+        <v>0.002833260191701732</v>
+      </c>
+      <c r="P13">
+        <v>0.002833260191701732</v>
+      </c>
+      <c r="Q13">
+        <v>0.007244670962999999</v>
+      </c>
+      <c r="R13">
+        <v>0.065202038667</v>
+      </c>
+      <c r="S13">
+        <v>0.0009330186194078517</v>
+      </c>
+      <c r="T13">
+        <v>0.0009330186194078517</v>
       </c>
     </row>
   </sheetData>
